--- a/data/trans_bre/P25A_7_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_7_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,63</t>
+          <t>10,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,21</t>
+          <t>11,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>9,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>12,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>147,05%</t>
+          <t>10,54</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>65,58%</t>
+          <t>95,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>147,14%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>70,18%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>63,88%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>86,34%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>96,95%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,31; 14,87</t>
+          <t>6,25; 14,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,58; 14,67</t>
+          <t>7,77; 15,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,74</t>
+          <t>3,79; 11,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 13,94</t>
+          <t>5,85; 14,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,45; 163,33</t>
+          <t>8,3; 16,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,66; 246,51</t>
+          <t>6,04; 14,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,74; 117,55</t>
+          <t>43,29; 157,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 25,06</t>
+          <t>77,95; 235,79</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>28,9; 124,89</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>34,54; 109,67</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>47,57; 129,85</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>45,12; 172,18</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,51</t>
+          <t>10,17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,73</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>146,71%</t>
+          <t>11,34</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>9,73</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>146,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>89,06%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>96,35%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>59,12%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>76,59%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>68,46%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,3; 13,66</t>
+          <t>5,88; 14,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 11,79</t>
+          <t>3,67; 11,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,04; 15,46</t>
+          <t>5,8; 15,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 21,3</t>
+          <t>2,21; 17,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,63; 281,65</t>
+          <t>3,72; 18,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,39; 176,92</t>
+          <t>3,55; 16,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,64; 172,53</t>
+          <t>64,13; 261,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 38,53</t>
+          <t>33,57; 170,45</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>41,53; 173,11</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8,23; 130,89</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21,04; 163,1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17,94; 136,35</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,39</t>
+          <t>14,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>8,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>229,23%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>74,02%</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>67,73%</t>
+          <t>157,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>72,37%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>61,35%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>24,65%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,33; 28,39</t>
+          <t>4,7; 23,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 17,11</t>
+          <t>0,56; 16,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 18,33</t>
+          <t>-5,62; 18,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,22 +1020,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>67,7; 597,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 227,73</t>
+          <t>-13,95; 16,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,73; 191,18</t>
+          <t>22,02; 410,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>2,06; 226,99</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-31,58; 185,19</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-47,27; 140,46</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,17</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,53</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>9,88</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>125,24%</t>
+          <t>12,27</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>115,93%</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>77,11%</t>
+          <t>118,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>112,44%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>78,2%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>62,5%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>84,07%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>71,32%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,21; 13,89</t>
+          <t>7,87; 13,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 12,04</t>
+          <t>7,0; 12,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,83</t>
+          <t>5,65; 11,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 12,29</t>
+          <t>5,95; 13,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>76,23; 179,18</t>
+          <t>8,32; 15,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,28; 168,91</t>
+          <t>5,49; 13,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,05; 121,49</t>
+          <t>73,08; 174,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 21,59</t>
+          <t>73,01; 171,68</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>43,07; 118,83</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>33,06; 93,38</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>50,13; 121,28</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>35,78; 118,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_7_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_7_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>10,72</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11,27</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,66</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,91</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>12,54</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>10,54</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>95,34%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>147,14%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>70,18%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>63,88%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>86,34%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>96,95%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>10.96199348619544</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>11.45108003960182</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.275003616096703</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>9.913385272799941</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>12.52974804644992</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>10.31694757893539</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.9985280995332654</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.516286259359453</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.652202968766078</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.6388333361939479</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.8634719576526173</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.9429650989111281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>6,25; 14,87</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,77; 15,04</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,79; 11,21</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>5,85; 14,33</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>8,3; 16,82</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>6,04; 14,74</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>43,29; 157,91</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>77,95; 235,79</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>28,9; 124,89</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>34,54; 109,67</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>47,57; 129,85</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>45,12; 172,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>6.512674728299611</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>7.98451108549396</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.063392811176946</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>5.846501932654666</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>8.271664459276773</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>5.79540153689551</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.4598870869746038</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.8135186038030569</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.2138316854348412</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.3453587170276313</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.4822181770895975</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.4176185214206393</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.14520586695244</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>15.23133176734272</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.93780924484254</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>14.3334042601701</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>16.80203973255486</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>14.72516215889033</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.613625334498859</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.418631702618085</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.184624911319951</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.096745787615352</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1.296446499006563</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>1.693339544451272</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>10,17</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,43</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>10,78</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>9,89</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>11,34</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>9,73</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>146,9%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>89,06%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>96,35%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>59,12%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>76,59%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>68,46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>5,88; 14,32</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3,67; 11,65</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,8; 15,62</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 17,8</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,72; 18,77</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,55; 16,0</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>64,13; 261,58</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>33,57; 170,45</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>41,53; 173,11</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>8,23; 130,89</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>21,04; 163,1</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>17,94; 136,35</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>9.101873875155404</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7.635394449170916</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>11.00412723499015</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>9.888868883244321</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>11.37258541459757</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>9.56840030212669</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.303762688305181</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9306703807494373</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.004985785433613</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.5911749410930172</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.7672283706535394</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.6804057160735869</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>14,36</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,08</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,96</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,74</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>157,4%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>72,37%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>61,35%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>24,65%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>4.576838528409322</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>3.893292015083043</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>6.189332202963769</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>2.213297413445444</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>3.781027045916099</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>3.50991811493233</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.4697908700694033</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.360502290374801</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.4545743514288239</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.08232433310451423</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.2171715079326336</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.1935636563210866</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>4,7; 23,21</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,56; 16,82</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,62; 18,48</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-13,95; 16,34</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>22,02; 410,19</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 226,99</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-31,58; 185,19</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-47,27; 140,46</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.16452132902903</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.85185129937662</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>15.87981751422525</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>17.80321770033066</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>18.82574549331475</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>15.58245409979863</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.486427881227827</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.751018662158858</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.812050209812325</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.308916163070491</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.646129970858092</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.363205428938908</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>11,0</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9,4</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,97</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,88</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>12,27</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>9,44</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>118,73%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>112,44%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>78,2%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>62,5%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>84,07%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>71,32%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>17.50326367010443</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.289132885840919</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>9.862926218540705</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>4.543951576139222</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>2.255350683385979</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.7556228405860077</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.7021635762174063</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>0.2322809081231599</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>7,87; 13,95</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,0; 12,05</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>5,65; 11,78</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>5,95; 13,3</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>8,32; 15,54</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,49; 13,09</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>73,08; 174,1</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>73,01; 171,68</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>43,07; 118,83</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>33,06; 93,38</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>50,13; 121,28</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>35,78; 118,01</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>7.006008143718395</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.8846460061912254</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.541755406995301</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-14.55032323149234</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.5553142240690598</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.01906047884081324</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2794194034241612</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.4885616071408856</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>26.5275623444782</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.94960822866443</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>19.30674833116024</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>16.18391390896466</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>5.769086164107184</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.330326826361822</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.045162247498324</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>1.381542193512113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>11.06446140388056</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>9.59715405605947</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8.979476902308935</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>9.87986000945692</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>12.26722465053806</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>9.245938328332787</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.230610639593247</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.165858489537045</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.7861386579077402</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.6250024975304421</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.8409911966267352</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.6976574568102318</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>7.987078936471667</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>7.166265603305913</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>5.641650595922385</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>5.949223391809422</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>8.334446238897094</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>5.231712775898418</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.7719005599734448</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.7511023235453337</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.4278858287884986</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.3305917952942756</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.5016029481050007</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.3374619366405378</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>14.07632347936449</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.20708865960578</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.7805078668476</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>13.29653008726538</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>15.55024429511845</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>12.85764879608751</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.8166999043875</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.733196170027842</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.194426347116534</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.9338336955475752</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>1.210857987677509</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>1.154530482636789</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
